--- a/results/data/FW2.2.xlsx
+++ b/results/data/FW2.2.xlsx
@@ -410,7 +410,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>34269.59500000002</v>
+        <v>34342.29500000001</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>303730.8039999999</v>
+        <v>303730.8040000001</v>
       </c>
     </row>
   </sheetData>

--- a/results/data/FW2.2.xlsx
+++ b/results/data/FW2.2.xlsx
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>63660.30099999998</v>
+        <v>63565.90099999999</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +410,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>34342.29500000001</v>
+        <v>34272.10700000001</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>303730.8040000001</v>
+        <v>302965.4440000001</v>
       </c>
     </row>
   </sheetData>
